--- a/data/income_statement/2digits/size/93_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/93_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>93-Sports activities and amusement and recreation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>93-Sports activities and amusement and recreation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>297896.17835</v>
+        <v>190610.95483</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>303754.05392</v>
+        <v>154541.08572</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>446743.9702</v>
+        <v>264076.35382</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>543160.60413</v>
+        <v>375459.58826</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>577024.96308</v>
+        <v>327222.5959</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>815456.1225599999</v>
+        <v>582771.8201600001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>949805.52298</v>
+        <v>661569.12184</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1031283.77801</v>
+        <v>873782.50497</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1492653.29163</v>
+        <v>1177713.1507</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1461543.65994</v>
+        <v>1145595.60043</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1790704.41035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1434616.53223</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1261825.045</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>274906.051</v>
+        <v>190086.9292</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>285871.39611</v>
+        <v>153897.38477</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>426638.05003</v>
+        <v>262125.25682</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>519821.9094299999</v>
+        <v>373161.02183</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>571886.20611</v>
+        <v>324902.49834</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>803290.39273</v>
+        <v>572837.2352100001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>921466.39802</v>
+        <v>642247.20122</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1000521.16453</v>
+        <v>847386.0050600001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1440524.39385</v>
+        <v>1135855.33866</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1413076.44132</v>
+        <v>1124167.21356</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1747903.80149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1401872.66172</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1097154.565</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>18286.68936</v>
+        <v>0</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>13683.13219</v>
+        <v>111.34332</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>17597.06616</v>
+        <v>901.92864</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>20777.98854</v>
+        <v>648.1044000000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>801.5196999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4287.47935</v>
+        <v>2196.21609</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11391.18752</v>
+        <v>7692.70043</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10444.05618</v>
+        <v>6705.37159</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>22958.7863</v>
+        <v>20915.95223</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>10231.59249</v>
+        <v>0</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>455.42521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>4703.43799</v>
+        <v>524.02563</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4199.52562</v>
+        <v>532.35763</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2508.85401</v>
+        <v>1049.16836</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2560.70616</v>
+        <v>1650.46203</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>4337.237270000001</v>
+        <v>2320.09756</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7878.250480000001</v>
+        <v>7738.36886</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>16947.93744</v>
+        <v>11629.22019</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>20318.5573</v>
+        <v>19691.12832</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>29170.11148</v>
+        <v>20941.85981</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>38235.62613</v>
+        <v>21428.38687</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>42345.18365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>32743.87051</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>164670.48</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1515.74869</v>
+        <v>1142.29948</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1471.24434</v>
+        <v>551.5958499999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1092.22102</v>
+        <v>722.76026</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1953.11575</v>
+        <v>749.54094</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2083.39115</v>
+        <v>1702.10484</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5373.30615</v>
+        <v>3936.39625</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>11520.36278</v>
+        <v>9836.169059999998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>24513.40693</v>
+        <v>20638.93411</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>26239.45851</v>
+        <v>22681.08793</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>63753.89495</v>
+        <v>57444.20215</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>76430.05357999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>69887.30796999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>20349.032</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1450.19769</v>
+        <v>1076.74848</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1471.24434</v>
+        <v>551.5958499999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1091.88543</v>
+        <v>722.76026</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1927.47274</v>
+        <v>730.56124</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1909.54053</v>
+        <v>1646.85204</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5212.0105</v>
+        <v>3873.24012</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9437.6641</v>
+        <v>7843.02169</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>20175.02258</v>
+        <v>16301.93934</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>14013.0312</v>
+        <v>10591.49497</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>49866.51642</v>
+        <v>43556.82362</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>61358.65265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>54815.90704</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>13137.656</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>65.551</v>
@@ -1190,25 +1126,25 @@
         <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>0.33559</v>
+        <v>0</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>18.9797</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>173.00062</v>
+        <v>55.2528</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>161.29565</v>
+        <v>63.15613</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1948.87582</v>
+        <v>1859.32451</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4338.130109999999</v>
+        <v>4336.994769999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12226.42731</v>
+        <v>12089.59296</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>13887.37853</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>15071.40093</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>7211.376</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1232,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6.66331</v>
+        <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0</v>
@@ -1244,7 +1185,7 @@
         <v>133.82286</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>0.25424</v>
+        <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>0</v>
@@ -1255,218 +1196,248 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>296380.42966</v>
+        <v>189468.65535</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>302282.8095800001</v>
+        <v>153989.48987</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>445651.74918</v>
+        <v>263353.59356</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>541207.48838</v>
+        <v>374710.0473200001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>574941.5719300001</v>
+        <v>325520.49106</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>810082.81641</v>
+        <v>578835.42391</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>938285.1602</v>
+        <v>651732.9527799999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1006770.37108</v>
+        <v>853143.57086</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1466413.83312</v>
+        <v>1155032.06277</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1397789.76499</v>
+        <v>1088151.39828</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1714274.35677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1364729.22426</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1241476.013</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>205619.99166</v>
+        <v>113616.59413</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>240114.95192</v>
+        <v>101758.06702</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>255190.60343</v>
+        <v>159823.66981</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>299384.58862</v>
+        <v>198208.85799</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>365275.82594</v>
+        <v>243870.1464</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>467265.1527</v>
+        <v>344568.99481</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>582824.09317</v>
+        <v>411931.03361</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>712830.9970399999</v>
+        <v>558344.66123</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>869029.55363</v>
+        <v>651632.6775700001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>910308.0960500001</v>
+        <v>726040.67839</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1352519.11205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1206570.48719</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>971209.1040000001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1817.84014</v>
+        <v>768.7726</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2760.14671</v>
+        <v>2191.63193</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3083.06053</v>
+        <v>567.85837</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>312.86642</v>
+        <v>248.11816</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16383.68128</v>
+        <v>5361.040400000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1624.17865</v>
+        <v>184.80158</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>576.0044300000001</v>
+        <v>143.28873</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2135.33584</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>308.1494</v>
+        <v>0</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>1812.53895</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>2699.437</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>33371.49423</v>
+        <v>30531.85421</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>5355.197810000001</v>
+        <v>936.9845899999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>7221.370599999999</v>
+        <v>1058.34726</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7312.78088</v>
+        <v>1017.49634</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>19240.98546</v>
+        <v>1472.01042</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>16172.34914</v>
+        <v>10090.66806</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>58532.55284</v>
+        <v>42590.27642</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>135761.68227</v>
+        <v>128425.5601</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>100782.09961</v>
+        <v>87469.15297</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>65815.28766</v>
+        <v>15830.54136</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>27997.06105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>25057.55798</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>19960.667</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>172248.49743</v>
+        <v>83084.73992000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>232535.47612</v>
+        <v>100052.30983</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>245203.86316</v>
+        <v>156573.69062</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>288986.20705</v>
+        <v>196623.50328</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>345721.97406</v>
+        <v>242150.01782</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>434697.0472800001</v>
+        <v>329105.21135</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>522667.36168</v>
+        <v>369155.95561</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>575606.83446</v>
+        <v>428889.33652</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>766031.71569</v>
+        <v>561947.7862699999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>844037.2543199999</v>
+        <v>710210.13703</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1322589.6077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1179580.48591</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>948398.133</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>406.43785</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5.22296</v>
+        <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>2.54016</v>
+        <v>0</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>0</v>
@@ -1484,94 +1455,109 @@
         <v>80.40249</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>147.40467</v>
+        <v>0</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>119.90435</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>150.867</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>90760.43799999999</v>
+        <v>75852.06122</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>62167.85765999999</v>
+        <v>52231.42285</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>190461.14575</v>
+        <v>103529.92375</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>241822.89976</v>
+        <v>176501.18933</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>209665.74599</v>
+        <v>81650.34466</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>342817.66371</v>
+        <v>234266.4291</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>355461.06703</v>
+        <v>239801.91917</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>293939.37404</v>
+        <v>294798.9096300001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>597384.27949</v>
+        <v>503399.3852</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>487481.6689399999</v>
+        <v>362110.71989</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>361755.24472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>158158.73707</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>270266.909</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>146717.81582</v>
+        <v>44943.03473</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>148633.40321</v>
+        <v>25299.9377</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>217849.06781</v>
+        <v>36260.03472</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>291509.20082</v>
+        <v>183611.28578</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>320088.15796</v>
+        <v>189806.87806</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>366759.03401</v>
+        <v>253559.8341</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>517076.04032</v>
+        <v>335871.14227</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>315945.21101</v>
+        <v>424515.02017</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>791811.78859</v>
+        <v>641650.01631</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>693440.33254</v>
+        <v>480967.1034799999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>453035.78617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>220241.872</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>133160.937</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1598,235 +1584,265 @@
         <v>0</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>223737.94401</v>
+        <v>221760.54809</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>348160.81774</v>
+        <v>333035.31123</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>15898.04769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1371.9252</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>465.678</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>10360.93647</v>
+        <v>7866.1022</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>8711.13776</v>
+        <v>6221.375119999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>8841.584870000001</v>
+        <v>7112.57735</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>11126.17717</v>
+        <v>6952.19402</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10432.70069</v>
+        <v>7358.75518</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>17132.47909</v>
+        <v>12396.56338</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14433.45159</v>
+        <v>7409.602</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>20159.17374</v>
+        <v>13106.23815</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>18159.49805</v>
+        <v>9228.399810000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>20066.79958</v>
+        <v>15618.40732</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27024.2912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18140.25452</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9130.146000000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>136356.87935</v>
+        <v>37076.93253</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>139922.26545</v>
+        <v>19078.56258</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>209007.48294</v>
+        <v>29147.45737</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>280383.02365</v>
+        <v>176659.09176</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>309655.45727</v>
+        <v>182448.12288</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>349626.55492</v>
+        <v>241163.27072</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>502642.58873</v>
+        <v>328461.54027</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>295786.03727</v>
+        <v>411408.78202</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>549914.34653</v>
+        <v>410661.06841</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>325212.71522</v>
+        <v>132313.38493</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>410113.44728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>200729.69228</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>123565.113</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-55957.37782</v>
+        <v>30909.02649</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-86465.54555</v>
+        <v>26931.48515</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-27387.92205999999</v>
+        <v>67269.88903000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-49686.30106000001</v>
+        <v>-7110.09645</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-110422.41197</v>
+        <v>-108156.5334</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-23941.3703</v>
+        <v>-19293.405</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-161614.97329</v>
+        <v>-96069.2231</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-22005.83697</v>
+        <v>-129716.11054</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-194427.5091</v>
+        <v>-138250.63111</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-205958.6636</v>
+        <v>-118856.38359</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-91280.54145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-62083.13493</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>137105.972</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>138280.85688</v>
+        <v>16601.6888</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>135773.28008</v>
+        <v>18940.11033</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>109525.0584</v>
+        <v>21272.78849</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>118974.1595</v>
+        <v>30503.57915</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>141485.2268</v>
+        <v>21101.45503</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>74894.70647999999</v>
+        <v>30224.44389</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>118509.48648</v>
+        <v>71882.59368999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>156630.31811</v>
+        <v>71781.97663999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>345468.81189</v>
+        <v>161610.57198</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>755222.9935699999</v>
+        <v>274414.29187</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>561938.32545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>255911.4568</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>193001.43</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2688.25018</v>
+        <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2544.53714</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2846.97757</v>
+        <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4258.02138</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7294.851559999999</v>
+        <v>1.8936</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4826.01447</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6017.33097</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>7240.235110000001</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5431.47525</v>
+        <v>195.12793</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2866.18688</v>
+        <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8732.32055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9.11914</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>136.67628</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>43.32906</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>19559.78086</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2907.73267</v>
+        <v>15.61287</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>504.40581</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,230 +1856,260 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7500.92065</v>
+        <v>2458.27205</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>10756.41366</v>
+        <v>4850.03295</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>24937.00982</v>
+        <v>15219.01729</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>11755.00348</v>
+        <v>3849.769</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>14770.39403</v>
+        <v>3348.01478</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>13616.00371</v>
+        <v>5779.636060000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>16265.67145</v>
+        <v>4843.00749</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>20737.08985</v>
+        <v>5602.11274</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>35634.07765</v>
+        <v>10973.35658</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>41336.30898</v>
+        <v>17393.03879</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>97452.01632000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16294.90459</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>3401.935</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1.01419</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>17.98376</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>298.07194</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>55.4207</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>212.0872</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1692.15292</v>
+        <v>10.10394</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>880.65814</v>
+        <v>7.94583</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2826.79129</v>
+        <v>2810.29622</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>30720.56502</v>
+        <v>3.81247</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>41229.61939</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>65060.15378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>64970.82318</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>25922.60175</v>
+        <v>0</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>26030.05549</v>
+        <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>25818.96433</v>
+        <v>0</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>25861.45941</v>
+        <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>591.46302</v>
+        <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2574.15171</v>
+        <v>91.09559</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2739.72413</v>
+        <v>1040.43928</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1492.20006</v>
+        <v>212.15215</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9072.327290000001</v>
+        <v>6423.24001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5038.22426</v>
+        <v>4092.24349</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>5860.59636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1787.6598</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2292.269</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>87.69316000000001</v>
+        <v>66.63889</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>118.55908</v>
+        <v>110.05371</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7722.37207</v>
+        <v>125.09404</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2627.8825</v>
+        <v>89.02164</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>31213.68923</v>
+        <v>123.02578</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7703.31</v>
+        <v>234.7849</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5878.12128</v>
+        <v>2136.78236</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4630.031120000001</v>
+        <v>4140.47174</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>40406.04357</v>
+        <v>39645.44848</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13466.39405</v>
+        <v>47.50661</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>25.18752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>85734.36619</v>
+        <v>12593.0447</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>50631.10704</v>
+        <v>10989.72107</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>18744.06489</v>
+        <v>1405.12502</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>50686.84982</v>
+        <v>22423.27358</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>59602.58623</v>
+        <v>12333.65158</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29657.34725</v>
+        <v>18034.96216</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>47663.02833</v>
+        <v>28801.85539</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>64137.4478</v>
+        <v>36601.68929</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>171918.03892</v>
+        <v>61085.3654</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>524196.5720399999</v>
+        <v>188361.05653</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>267819.69563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>81658.55903999999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>78980.236</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>138.22685</v>
+        <v>114.116</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>35.60355000000001</v>
+        <v>30.927</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>9.719040000000001</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>144.1874</v>
+        <v>128.181</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>38.021</v>
+        <v>29.466</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>545.13264</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>185.822</v>
+        <v>256.74637</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>206.732</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2151.342</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>91.17400000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>1.16525</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>16207.78391</v>
+        <v>1369.61716</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>45629.90122</v>
+        <v>2959.3756</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>29011.20246</v>
+        <v>4523.55214</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>23686.19315</v>
+        <v>4141.514929999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>8096.187269999999</v>
+        <v>5166.68829</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>11879.97275</v>
+        <v>6028.78237</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>38015.41373</v>
+        <v>34507.4307</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>55380.70088</v>
+        <v>22158.50813</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>52079.55218999999</v>
+        <v>43077.48911000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>126691.15097</v>
+        <v>22892.29006</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>114835.84804</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>89047.00293999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>108235.816</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>46020.02002</v>
+        <v>8437.9408</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>34995.23005</v>
+        <v>4163.5244</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>37902.42326</v>
+        <v>5410.96829</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52972.29154999999</v>
+        <v>18011.1464</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>90518.74934000001</v>
+        <v>18588.67408</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>51694.6905</v>
+        <v>20479.36111</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>120416.19882</v>
+        <v>58628.88752</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>93760.09803000001</v>
+        <v>104168.18158</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>265820.66218</v>
+        <v>144460.59561</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>605435.6304400001</v>
+        <v>313065.8674</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>260456.0655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>122762.17488</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>73586.56600000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1125.9432</v>
+        <v>64.533</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>322.36225</v>
+        <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>28.8404</v>
+        <v>1.4</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1.04168</v>
+        <v>0</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>146.60595</v>
+        <v>30.84746</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>139.48389</v>
+        <v>105</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>90.12217999999999</v>
+        <v>48.11777</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>166.19928</v>
+        <v>134.35335</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2488.11514</v>
+        <v>2212.17208</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3590.27878</v>
+        <v>2501.69185</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6673.4709</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3693.57617</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1.367</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1136.84645</v>
+        <v>0</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>710.44233</v>
+        <v>0</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>11164.4275</v>
+        <v>0</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2923.24761</v>
+        <v>1310.655</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2749.01256</v>
+        <v>617.2285000000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>6474.14028</v>
+        <v>1372.57822</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4282.40199</v>
+        <v>452.95968</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4641.72322</v>
+        <v>7634.986889999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>12748.40508</v>
+        <v>5556.705569999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>32987.56268</v>
+        <v>28567.75163</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19349.14661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>14125.12343</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2997.737</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2285,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0.14738</v>
+        <v>0.05988</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.22847</v>
+        <v>0.21972</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.06737</v>
@@ -2303,61 +2379,71 @@
         <v>365.40908</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>100.38796</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>34405.91049</v>
+        <v>7461.95447</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>26247.39139</v>
+        <v>3888.53708</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>17409.67681</v>
+        <v>3638.39122</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>40651.93829999999</v>
+        <v>15601.0313</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>85195.96051</v>
+        <v>15693.46145</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>39223.1422</v>
+        <v>13081.834</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>84619.28778999999</v>
+        <v>54737.98943</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>79088.10231</v>
+        <v>82149.06031</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>226417.17381</v>
+        <v>112944.40767</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>542967.7977400001</v>
+        <v>263270.90844</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>191186.39746</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>70650.53548000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>51726.404</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>65.26255</v>
+        <v>60.586</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>9.719040000000001</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2366,7 +2452,7 @@
         <v>288.7</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>155.438</v>
+        <v>140.52</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>30.79369</v>
@@ -2375,7 +2461,7 @@
         <v>53.97901</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>366.82354</v>
+        <v>418.21796</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>305.51534</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1471.412</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>169.044</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0.342</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>771.1864399999999</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,257 +2516,292 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9286.05733</v>
+        <v>850.8673299999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7705.31504</v>
+        <v>274.98732</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9299.478550000002</v>
+        <v>1771.17707</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9107.21658</v>
+        <v>810.7002199999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2271.50385</v>
+        <v>2106.39695</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5827.06307</v>
+        <v>5889.08783</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>30663.35771</v>
+        <v>2628.79149</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1944.79086</v>
+        <v>7050.29069</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>23496.04373</v>
+        <v>23076.38587</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>23550.40939</v>
+        <v>16486.32159</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41775.63853</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>32821.5278</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>18692.014</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>85870.28289</v>
+        <v>6916.037530000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>63873.09085</v>
+        <v>4579.6875</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>96159.36017</v>
+        <v>14436.38213</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>40422.43639</v>
+        <v>17073.35431</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>121294.45706</v>
+        <v>23708.70091</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>96962.00940000001</v>
+        <v>40138.88628</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>167899.07955</v>
+        <v>41231.88615</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>175355.76652</v>
+        <v>68065.25756</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>225377.28751</v>
+        <v>117477.24277</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>493721.82984</v>
+        <v>139986.8152</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>521391.91377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>225819.31138</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>208979.046</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>37519.21036</v>
+        <v>4233.77679</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>19355.17348</v>
+        <v>3365.97373</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>32051.21482</v>
+        <v>10369.84323</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>33703.06815</v>
+        <v>15417.07773</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>58196.47163</v>
+        <v>22375.73502</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>59788.45617</v>
+        <v>38176.53751</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>71373.20118999999</v>
+        <v>39626.4844</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>78703.71346</v>
+        <v>67181.49137999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>185218.00288</v>
+        <v>117025.69865</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>269591.25667</v>
+        <v>139601.73488</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>341103.73704</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>225819.31138</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>208979.046</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>48351.07253</v>
+        <v>2682.26074</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>44517.91737</v>
+        <v>1213.71377</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>64108.14535</v>
+        <v>4066.5389</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>6719.36824</v>
+        <v>1656.27658</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>63097.98543</v>
+        <v>1332.96589</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>37173.55323</v>
+        <v>1962.34877</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>96525.87836</v>
+        <v>1605.40175</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>96652.05306000001</v>
+        <v>883.7661800000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>40159.28462999999</v>
+        <v>451.54412</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>224130.57317</v>
+        <v>385.08032</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>180288.17673</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-49566.82384999999</v>
+        <v>32156.73696</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-49560.58637</v>
+        <v>37128.38358</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-51924.64709000001</v>
+        <v>68695.32710000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-24106.8695</v>
+        <v>-11691.01801</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-180750.39157</v>
+        <v>-129352.45336</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-97703.36371999999</v>
+        <v>-49687.2085</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-331420.76518</v>
+        <v>-124047.40308</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-134491.38341</v>
+        <v>-230167.57304</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-340156.6469000001</v>
+        <v>-238577.89751</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-549893.1303099999</v>
+        <v>-297494.77432</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-311190.19527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-154753.16439</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>47541.79</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>59669.86519</v>
+        <v>8744.74199</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>21023.06648</v>
+        <v>581.69348</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>26774.89383</v>
+        <v>1431.38943</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>22899.01811</v>
+        <v>17403.69021</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27312.71132</v>
+        <v>22146.62123</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>25463.33039</v>
+        <v>19383.52101</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>116833.33939</v>
+        <v>69522.26902999998</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>182475.46296</v>
+        <v>100529.43264</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>66170.09756000001</v>
+        <v>46929.32383</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>53329.31484000001</v>
+        <v>37588.83942</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1597024.69838</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>60731.96204</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>12807.447</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>42495.64697</v>
+        <v>0.8780399999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>27.49953</v>
+        <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>25.40057</v>
+        <v>0</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>471.46511</v>
+        <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>46.92258</v>
@@ -2687,106 +2813,121 @@
         <v>5021.937339999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>37.39039</v>
+        <v>17.5</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>169.01382</v>
+        <v>147.12431</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>315.77119</v>
+        <v>0</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2282.0371</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.8991</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>223.988</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>17174.21822</v>
+        <v>8743.863949999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20995.56695</v>
+        <v>581.69348</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>26749.49326</v>
+        <v>1431.38943</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22427.553</v>
+        <v>17403.69021</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>27265.78874</v>
+        <v>22099.69865</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>25448.95639</v>
+        <v>19369.14701</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>111811.40205</v>
+        <v>64500.33169</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>182438.07257</v>
+        <v>100511.93264</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>66001.08374</v>
+        <v>46782.19952</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>53013.54365</v>
+        <v>37588.83942</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1594742.66128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>60731.06294</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>12583.459</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>66104.98863000001</v>
+        <v>563.4760600000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10075.7503</v>
+        <v>590.1648200000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>14734.39797</v>
+        <v>1872.88063</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>11074.61824</v>
+        <v>7943.47677</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6438.74749</v>
+        <v>3870.36447</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26840.34026</v>
+        <v>15161.84383</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>23656.95725</v>
+        <v>11478.33274</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>36249.95241</v>
+        <v>39097.32343</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>52425.79759999999</v>
+        <v>43678.76812</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>25153.17312</v>
+        <v>13053.00421</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>35126.23174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>22844.6944</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24950.572</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>652.55711</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>57353.65877999999</v>
+        <v>83.66997000000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1091.55689</v>
+        <v>27.56102</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1090.83217</v>
+        <v>930.65021</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>383.63095</v>
+        <v>228.16404</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>288.47698</v>
+        <v>143.20715</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>2165.02573</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1721.60802</v>
+        <v>934.1081999999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4105.308379999999</v>
+        <v>2287.50269</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5342.86393</v>
+        <v>4981.45043</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2679.39972</v>
+        <v>482.96958</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2853.01979</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>738.95054</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>15.247</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8751.32985</v>
+        <v>479.80609</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8331.6363</v>
+        <v>562.6038000000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>13643.5658</v>
+        <v>942.23042</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>10690.98729</v>
+        <v>7715.312730000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6150.156730000001</v>
+        <v>3727.04354</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>22551.97781</v>
+        <v>10873.48138</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21935.34923</v>
+        <v>10544.22454</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>29586.89129</v>
+        <v>34252.068</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>47082.93367</v>
+        <v>38697.31769</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>22473.7734</v>
+        <v>12570.03463</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>32273.21195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22105.74386</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>24935.325</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-56001.94729</v>
+        <v>40338.00289</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-38613.27019</v>
+        <v>37119.91224000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-39884.15123</v>
+        <v>68253.83590000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-12282.46963</v>
+        <v>-2230.80457</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-159876.42774</v>
+        <v>-111076.1966</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-99080.37359</v>
+        <v>-45465.53132</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-238244.38304</v>
+        <v>-66003.46679000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>11734.12714</v>
+        <v>-168735.46383</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-326412.34694</v>
+        <v>-235327.3418</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-521716.98859</v>
+        <v>-272958.93911</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1250708.27137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-116865.89675</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>35398.665</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6390.87434</v>
+        <v>1142.52625</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>5623.837930000001</v>
+        <v>76.17077</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4210.46096</v>
+        <v>133.72572</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7598.701099999999</v>
+        <v>3777.59052</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4547.75992</v>
+        <v>989.2971199999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>10713.49641</v>
+        <v>4302.05187</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2138.95327</v>
+        <v>556.0416799999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>4281.191809999999</v>
+        <v>1284.23889</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>11328.78027</v>
+        <v>2023.54961</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16746.13971</v>
+        <v>7361.143849999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>25291.37618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13995.95749</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25889.548</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-62392.82163000001</v>
+        <v>39195.47664</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-44237.10812</v>
+        <v>37043.74147</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-44094.61219</v>
+        <v>68120.11018</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-19881.17073</v>
+        <v>-6008.39509</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-164424.18766</v>
+        <v>-112065.49372</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-109793.87</v>
+        <v>-49767.58319</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-240383.33631</v>
+        <v>-66559.50846999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>7452.935329999998</v>
+        <v>-170019.70272</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-337741.12721</v>
+        <v>-237350.89141</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-538463.1283</v>
+        <v>-280320.08296</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1225416.89519</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-130861.85424</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>9509.117</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>